--- a/Results/Act/Price/Results_world_act_price_Max.xlsx
+++ b/Results/Act/Price/Results_world_act_price_Max.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -28,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>238.2077439593457</v>
+        <v>793.7358230959362</v>
       </c>
       <c r="E2">
-        <v>275.0695248214005</v>
+        <v>1034.4718277679</v>
       </c>
       <c r="F2">
-        <v>454.735900327422</v>
+        <v>1033.964024776652</v>
       </c>
       <c r="G2">
-        <v>336.9032983918378</v>
+        <v>982.5435255575248</v>
       </c>
       <c r="H2">
-        <v>862.7145075521082</v>
+        <v>1317.816290021042</v>
       </c>
       <c r="I2">
-        <v>495.7088344127986</v>
+        <v>950.7098816678039</v>
       </c>
       <c r="J2">
-        <v>553.1865029835801</v>
+        <v>1720.241489035259</v>
       </c>
       <c r="K2">
-        <v>636.3012552142117</v>
+        <v>1710.155489473343</v>
       </c>
       <c r="L2">
-        <v>507.2110206137731</v>
+        <v>1521.68446988472</v>
       </c>
       <c r="M2">
-        <v>622.4566255163119</v>
+        <v>1402.57344020561</v>
       </c>
       <c r="N2">
-        <v>316.1209336414537</v>
+        <v>3000.402967608136</v>
       </c>
       <c r="O2">
-        <v>351.5756882686949</v>
+        <v>1821.277134160562</v>
       </c>
       <c r="P2">
-        <v>706.4069266689897</v>
+        <v>3650.317736350581</v>
       </c>
       <c r="Q2">
-        <v>717.7823919024287</v>
+        <v>3939.264535145325</v>
       </c>
       <c r="R2">
-        <v>729.5615582404988</v>
+        <v>4231.489958901232</v>
       </c>
       <c r="S2">
-        <v>1807.111619478097</v>
+        <v>9252.071804826062</v>
       </c>
       <c r="T2">
-        <v>1804.565775186095</v>
+        <v>9905.961295808995</v>
       </c>
       <c r="U2">
-        <v>1808.082421008512</v>
+        <v>10566.55086217154</v>
       </c>
       <c r="V2">
-        <v>1818.986469534796</v>
+        <v>11238.36030537752</v>
       </c>
       <c r="W2">
-        <v>1830.747306658688</v>
+        <v>11918.95454327444</v>
       </c>
       <c r="X2">
-        <v>1687.40751568404</v>
+        <v>11971.53139510262</v>
       </c>
       <c r="Y2">
-        <v>1703.391842959952</v>
+        <v>12621.45945996908</v>
       </c>
       <c r="Z2">
-        <v>1715.863305819313</v>
+        <v>13275.86371037634</v>
       </c>
       <c r="AA2">
-        <v>1730.388196813999</v>
+        <v>13942.14884341816</v>
       </c>
       <c r="AB2">
-        <v>1767.356280141859</v>
+        <v>14624.90692133461</v>
       </c>
       <c r="AC2">
-        <v>601.410512533531</v>
+        <v>6796.673173966085</v>
       </c>
       <c r="AD2">
-        <v>666.9829788664531</v>
+        <v>6974.422563090736</v>
       </c>
       <c r="AE2">
-        <v>730.635987375879</v>
+        <v>7198.905382938074</v>
       </c>
       <c r="AF2">
-        <v>727.7945056617872</v>
+        <v>7416.985666535125</v>
       </c>
       <c r="AG2">
-        <v>707.511807289892</v>
+        <v>7670.026559850142</v>
       </c>
       <c r="AH2">
-        <v>538.6679421958027</v>
+        <v>4851.050444636695</v>
       </c>
       <c r="AI2">
-        <v>527.3175672006995</v>
+        <v>4885.636997502713</v>
       </c>
       <c r="AJ2">
-        <v>512.1132410316176</v>
+        <v>5089.748018717828</v>
       </c>
       <c r="AK2">
-        <v>503.3097805381559</v>
+        <v>5459.336911226381</v>
       </c>
       <c r="AL2">
-        <v>557.9139151111749</v>
+        <v>5818.919236106758</v>
       </c>
       <c r="AM2">
-        <v>675.9984346051723</v>
+        <v>7715.690194164267</v>
       </c>
       <c r="AN2">
-        <v>805.8350410556927</v>
+        <v>8592.803970246576</v>
       </c>
       <c r="AO2">
-        <v>988.6845977591958</v>
+        <v>9800.10040833064</v>
       </c>
       <c r="AP2">
-        <v>1222.00501867079</v>
+        <v>11346.24746180583</v>
       </c>
       <c r="AQ2">
-        <v>1344.102954044902</v>
+        <v>12440.38957079451</v>
       </c>
       <c r="AR2">
-        <v>1360.417233514405</v>
+        <v>15485.38682427897</v>
       </c>
       <c r="AS2">
-        <v>1363.313441096416</v>
+        <v>16080.19444227869</v>
       </c>
       <c r="AT2">
-        <v>1353.402841144761</v>
+        <v>16567.16455090916</v>
       </c>
       <c r="AU2">
-        <v>1332.536124571803</v>
+        <v>16950.75298927514</v>
       </c>
       <c r="AV2">
-        <v>1330.061925078701</v>
+        <v>17328.72405148516</v>
       </c>
       <c r="AW2">
-        <v>1316.918519302302</v>
+        <v>18130.22244690927</v>
       </c>
       <c r="AX2">
-        <v>1450.303884410993</v>
+        <v>17917.15412967986</v>
       </c>
       <c r="AY2">
-        <v>1299.783641209071</v>
+        <v>16829.74713345771</v>
       </c>
       <c r="AZ2">
-        <v>1092.879413413141</v>
+        <v>15115.74464896315</v>
       </c>
       <c r="BA2">
-        <v>1005.40945542124</v>
+        <v>14257.13903360309</v>
       </c>
       <c r="BB2">
-        <v>993.0308064312943</v>
+        <v>13563.76673288133</v>
       </c>
       <c r="BC2">
-        <v>981.7297513711236</v>
+        <v>13445.4140039364</v>
       </c>
       <c r="BD2">
-        <v>943.2904833666738</v>
+        <v>13047.19530607703</v>
       </c>
       <c r="BE2">
-        <v>897.7131476217352</v>
+        <v>12471.69303917827</v>
       </c>
       <c r="BF2">
-        <v>872.468830056466</v>
+        <v>12271.79402799427</v>
       </c>
       <c r="BG2">
-        <v>850.0530324395725</v>
+        <v>12026.78964157202</v>
       </c>
       <c r="BH2">
-        <v>880.7642749249867</v>
+        <v>12460.57354450541</v>
       </c>
       <c r="BI2">
-        <v>955.9421924924898</v>
+        <v>13127.60944543088</v>
       </c>
       <c r="BJ2">
-        <v>1075.0175804406</v>
+        <v>14033.49370581492</v>
       </c>
       <c r="BK2">
-        <v>1224.084842159595</v>
+        <v>15002.5074450298</v>
       </c>
       <c r="BL2">
-        <v>1371.725750958224</v>
+        <v>15745.99440848827</v>
       </c>
       <c r="BM2">
-        <v>1522.331016896576</v>
+        <v>16837.51947065515</v>
       </c>
       <c r="BN2">
-        <v>1614.129902850952</v>
+        <v>17925.88785374735</v>
       </c>
       <c r="BO2">
-        <v>1644.539767226742</v>
+        <v>18904.08770631917</v>
       </c>
       <c r="BP2">
-        <v>1646.035545536843</v>
+        <v>19502.9846150003</v>
       </c>
       <c r="BQ2">
-        <v>1625.996756088944</v>
+        <v>19654.52761395947</v>
       </c>
       <c r="BR2">
-        <v>1615.066520180012</v>
+        <v>19854.69784162369</v>
       </c>
       <c r="BS2">
-        <v>1604.18168605865</v>
+        <v>19969.32303781404</v>
       </c>
       <c r="BT2">
-        <v>1587.551951636293</v>
+        <v>19887.93589172208</v>
       </c>
       <c r="BU2">
-        <v>1542.271819349492</v>
+        <v>19432.17034419851</v>
       </c>
       <c r="BV2">
-        <v>1428.498852363729</v>
+        <v>18463.78136136083</v>
       </c>
       <c r="BW2">
-        <v>1311.000879482778</v>
+        <v>17600.76330373521</v>
       </c>
       <c r="BX2">
-        <v>1241.767367709995</v>
+        <v>16960.52431967173</v>
       </c>
       <c r="BY2">
-        <v>1216.874183146967</v>
+        <v>16553.05136049532</v>
       </c>
       <c r="BZ2">
-        <v>1198.522320846048</v>
+        <v>16237.60590175337</v>
       </c>
       <c r="CA2">
-        <v>1159.125286197843</v>
+        <v>15760.61719913505</v>
       </c>
       <c r="CB2">
-        <v>1133.981501119974</v>
+        <v>15454.46629273879</v>
       </c>
       <c r="CC2">
-        <v>1124.853313737185</v>
+        <v>15274.48145999783</v>
       </c>
       <c r="CD2">
-        <v>1142.104734664174</v>
+        <v>15261.90754364518</v>
       </c>
       <c r="CE2">
-        <v>1194.839501409775</v>
+        <v>15420.41130215055</v>
       </c>
       <c r="CF2">
-        <v>1271.745476468658</v>
+        <v>15513.04538945495</v>
       </c>
       <c r="CG2">
-        <v>1394.082262018366</v>
+        <v>15853.50080706153</v>
       </c>
       <c r="CH2">
-        <v>1532.501862998074</v>
+        <v>16200.73830050511</v>
       </c>
       <c r="CI2">
-        <v>1667.227417283545</v>
+        <v>16531.46048445526</v>
       </c>
       <c r="CJ2">
-        <v>1777.494955926252</v>
+        <v>16846.98544377745</v>
       </c>
       <c r="CK2">
-        <v>1826.954694653733</v>
+        <v>16805.08616561444</v>
       </c>
       <c r="CL2">
-        <v>1854.820490938682</v>
+        <v>16931.24303349996</v>
       </c>
       <c r="CM2">
-        <v>1856.731892285994</v>
+        <v>16903.99137792777</v>
       </c>
       <c r="CN2">
-        <v>1847.034999966808</v>
+        <v>16749.71678847648</v>
       </c>
       <c r="CO2">
-        <v>1832.681464684495</v>
+        <v>16517.05410184704</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>14.99156499448879</v>
+        <v>59.47279146422881</v>
       </c>
       <c r="E3">
-        <v>22.4564145628767</v>
+        <v>77.74484765513898</v>
       </c>
       <c r="F3">
-        <v>38.55659818889687</v>
+        <v>77.60701046618566</v>
       </c>
       <c r="G3">
-        <v>27.86355789754104</v>
+        <v>73.69278460042281</v>
       </c>
       <c r="H3">
-        <v>75.67469898261382</v>
+        <v>99.29058487679254</v>
       </c>
       <c r="I3">
-        <v>42.40003643654106</v>
+        <v>71.34238694355065</v>
       </c>
       <c r="J3">
-        <v>47.44132705463691</v>
+        <v>129.8125667979558</v>
       </c>
       <c r="K3">
-        <v>54.67941620600044</v>
+        <v>128.9173182943726</v>
       </c>
       <c r="L3">
-        <v>42.9957799398993</v>
+        <v>114.6119631994127</v>
       </c>
       <c r="M3">
-        <v>53.27401282214476</v>
+        <v>105.4823725730665</v>
       </c>
       <c r="N3">
-        <v>25.2324101438224</v>
+        <v>227.0096913645774</v>
       </c>
       <c r="O3">
-        <v>28.76248023802456</v>
+        <v>137.3893437159696</v>
       </c>
       <c r="P3">
-        <v>60.80272181086306</v>
+        <v>276.4855427128213</v>
       </c>
       <c r="Q3">
-        <v>61.84773337590222</v>
+        <v>298.4383461876777</v>
       </c>
       <c r="R3">
-        <v>62.93515882103862</v>
+        <v>320.6431751823594</v>
       </c>
       <c r="S3">
-        <v>160.4730246555169</v>
+        <v>702.5701878575063</v>
       </c>
       <c r="T3">
-        <v>160.0330341044674</v>
+        <v>752.2947990383841</v>
       </c>
       <c r="U3">
-        <v>160.2266132347303</v>
+        <v>802.5297710471528</v>
       </c>
       <c r="V3">
-        <v>161.1925865896042</v>
+        <v>853.6203014395876</v>
       </c>
       <c r="W3">
-        <v>162.2478123286139</v>
+        <v>905.3921157740981</v>
       </c>
       <c r="X3">
-        <v>149.274208356603</v>
+        <v>909.3906520375004</v>
       </c>
       <c r="Y3">
-        <v>150.774208046963</v>
+        <v>958.8814541562535</v>
       </c>
       <c r="Z3">
-        <v>151.9066189716832</v>
+        <v>1008.739693066845</v>
       </c>
       <c r="AA3">
-        <v>153.2535266163284</v>
+        <v>1059.53484791451</v>
       </c>
       <c r="AB3">
-        <v>156.9477568247059</v>
+        <v>1111.624639989005</v>
       </c>
       <c r="AC3">
-        <v>51.9205482279579</v>
+        <v>516.1149785728475</v>
       </c>
       <c r="AD3">
-        <v>58.59988476948259</v>
+        <v>529.7966482647539</v>
       </c>
       <c r="AE3">
-        <v>65.07555982694312</v>
+        <v>547.1276904602078</v>
       </c>
       <c r="AF3">
-        <v>64.59035414988028</v>
+        <v>563.9756729947609</v>
       </c>
       <c r="AG3">
-        <v>62.2750027082368</v>
+        <v>583.5656412776106</v>
       </c>
       <c r="AH3">
-        <v>46.78600616764474</v>
+        <v>369.3080691760837</v>
       </c>
       <c r="AI3">
-        <v>45.38441402504403</v>
+        <v>372.1530012658628</v>
       </c>
       <c r="AJ3">
-        <v>43.56913595526476</v>
+        <v>388.3121914954538</v>
       </c>
       <c r="AK3">
-        <v>42.41190873106405</v>
+        <v>417.5200701090818</v>
       </c>
       <c r="AL3">
-        <v>47.8766049504028</v>
+        <v>446.033148869072</v>
       </c>
       <c r="AM3">
-        <v>59.97118025818233</v>
+        <v>592.2461175331766</v>
       </c>
       <c r="AN3">
-        <v>73.28746429350326</v>
+        <v>661.8607571092541</v>
       </c>
       <c r="AO3">
-        <v>92.14322152867267</v>
+        <v>758.0709312153732</v>
       </c>
       <c r="AP3">
-        <v>116.2764655051901</v>
+        <v>881.8997799286615</v>
       </c>
       <c r="AQ3">
-        <v>128.7825302898899</v>
+        <v>970.5860976395251</v>
       </c>
       <c r="AR3">
-        <v>130.229144167924</v>
+        <v>1206.361447146547</v>
       </c>
       <c r="AS3">
-        <v>130.286294226154</v>
+        <v>1255.481799814231</v>
       </c>
       <c r="AT3">
-        <v>129.0220493155097</v>
+        <v>1296.08330554905</v>
       </c>
       <c r="AU3">
-        <v>126.6329727728556</v>
+        <v>1328.461469558629</v>
       </c>
       <c r="AV3">
-        <v>126.0532252427158</v>
+        <v>1360.495862941349</v>
       </c>
       <c r="AW3">
-        <v>124.4609457907752</v>
+        <v>1424.19455884759</v>
       </c>
       <c r="AX3">
-        <v>135.5234457109985</v>
+        <v>1408.087571484006</v>
       </c>
       <c r="AY3">
-        <v>119.6415277358953</v>
+        <v>1320.337568589648</v>
       </c>
       <c r="AZ3">
-        <v>97.87568081982438</v>
+        <v>1180.795755490674</v>
       </c>
       <c r="BA3">
-        <v>88.60604485803783</v>
+        <v>1110.894328135713</v>
       </c>
       <c r="BB3">
-        <v>87.5101035564431</v>
+        <v>1058.41345196015</v>
       </c>
       <c r="BC3">
-        <v>86.18164950003637</v>
+        <v>1049.109866479157</v>
       </c>
       <c r="BD3">
-        <v>82.00515474307518</v>
+        <v>1016.55871627039</v>
       </c>
       <c r="BE3">
-        <v>77.06864017915828</v>
+        <v>969.1167352054795</v>
       </c>
       <c r="BF3">
-        <v>74.24185291257245</v>
+        <v>952.4710897539721</v>
       </c>
       <c r="BG3">
-        <v>72.01356299899544</v>
+        <v>935.143903099083</v>
       </c>
       <c r="BH3">
-        <v>74.98895151207088</v>
+        <v>970.7322787867364</v>
       </c>
       <c r="BI3">
-        <v>82.59944271816447</v>
+        <v>1025.545344649917</v>
       </c>
       <c r="BJ3">
-        <v>94.78805911099752</v>
+        <v>1100.084081319332</v>
       </c>
       <c r="BK3">
-        <v>110.1030930792972</v>
+        <v>1179.782604744197</v>
       </c>
       <c r="BL3">
-        <v>125.5030950991732</v>
+        <v>1242.552147638803</v>
       </c>
       <c r="BM3">
-        <v>140.9570964095712</v>
+        <v>1332.316166930442</v>
       </c>
       <c r="BN3">
-        <v>150.260115846344</v>
+        <v>1421.73409218754</v>
       </c>
       <c r="BO3">
-        <v>153.1447071088609</v>
+        <v>1501.904549035248</v>
       </c>
       <c r="BP3">
-        <v>153.0093099346816</v>
+        <v>1550.457570464796</v>
       </c>
       <c r="BQ3">
-        <v>150.7870447383</v>
+        <v>1562.726305133085</v>
       </c>
       <c r="BR3">
-        <v>149.3491262461017</v>
+        <v>1578.025467260728</v>
       </c>
       <c r="BS3">
-        <v>147.9247852454879</v>
+        <v>1586.171683022223</v>
       </c>
       <c r="BT3">
-        <v>145.9094685518713</v>
+        <v>1578.023135019957</v>
       </c>
       <c r="BU3">
-        <v>140.9083029597313</v>
+        <v>1538.850327372722</v>
       </c>
       <c r="BV3">
-        <v>128.9115872715548</v>
+        <v>1458.429523820714</v>
       </c>
       <c r="BW3">
-        <v>116.3630358211762</v>
+        <v>1385.765210089517</v>
       </c>
       <c r="BX3">
-        <v>108.8691627573565</v>
+        <v>1331.628845583215</v>
       </c>
       <c r="BY3">
-        <v>106.0175159880277</v>
+        <v>1296.766000396451</v>
       </c>
       <c r="BZ3">
-        <v>103.8530778553118</v>
+        <v>1269.511205747517</v>
       </c>
       <c r="CA3">
-        <v>99.65316455502503</v>
+        <v>1229.919765643925</v>
       </c>
       <c r="CB3">
-        <v>96.76256219557398</v>
+        <v>1203.452898588746</v>
       </c>
       <c r="CC3">
-        <v>95.54326460493603</v>
+        <v>1187.280873805043</v>
       </c>
       <c r="CD3">
-        <v>97.07728053787088</v>
+        <v>1184.672941877706</v>
       </c>
       <c r="CE3">
-        <v>102.315528059083</v>
+        <v>1195.794846723763</v>
       </c>
       <c r="CF3">
-        <v>110.259438871045</v>
+        <v>1202.242129510857</v>
       </c>
       <c r="CG3">
-        <v>122.7441505304755</v>
+        <v>1227.451380101942</v>
       </c>
       <c r="CH3">
-        <v>136.9036586438657</v>
+        <v>1252.781223104088</v>
       </c>
       <c r="CI3">
-        <v>150.6704421600225</v>
+        <v>1276.324870630983</v>
       </c>
       <c r="CJ3">
-        <v>161.8742515868705</v>
+        <v>1298.156808857118</v>
       </c>
       <c r="CK3">
-        <v>166.9751537114628</v>
+        <v>1292.069486748919</v>
       </c>
       <c r="CL3">
-        <v>169.5382946830563</v>
+        <v>1297.932277133702</v>
       </c>
       <c r="CM3">
-        <v>169.3866435113002</v>
+        <v>1291.377550984911</v>
       </c>
       <c r="CN3">
-        <v>168.0219801483839</v>
+        <v>1274.662955972119</v>
       </c>
       <c r="CO3">
-        <v>166.1726644067523</v>
+        <v>1251.712427333436</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>24067657.6490861</v>
+        <v>1075522.015168602</v>
       </c>
       <c r="E4">
-        <v>24021620.02726709</v>
+        <v>966077.0370935517</v>
       </c>
       <c r="F4">
-        <v>26504197.47795654</v>
+        <v>843374.7960170697</v>
       </c>
       <c r="G4">
-        <v>26627707.87791691</v>
+        <v>978285.3019777122</v>
       </c>
       <c r="H4">
-        <v>24215176.664588</v>
+        <v>1075037.408576819</v>
       </c>
       <c r="I4">
-        <v>23788195.80285039</v>
+        <v>1021737.23042843</v>
       </c>
       <c r="J4">
-        <v>26255135.9718312</v>
+        <v>1110837.778399129</v>
       </c>
       <c r="K4">
-        <v>29732179.40575042</v>
+        <v>1018921.354103637</v>
       </c>
       <c r="L4">
-        <v>29487282.2797221</v>
+        <v>1012090.877201698</v>
       </c>
       <c r="M4">
-        <v>31393473.75039273</v>
+        <v>1349904.260723058</v>
       </c>
       <c r="N4">
-        <v>33969965.96691702</v>
+        <v>1281023.807984966</v>
       </c>
       <c r="O4">
-        <v>31456606.7834247</v>
+        <v>1268934.720697017</v>
       </c>
       <c r="P4">
-        <v>34109332.69735748</v>
+        <v>6576992.08699899</v>
       </c>
       <c r="Q4">
-        <v>35303144.82989301</v>
+        <v>6609440.272674291</v>
       </c>
       <c r="R4">
-        <v>36493381.76545615</v>
+        <v>6634129.13794332</v>
       </c>
       <c r="S4">
-        <v>39539761.7689899</v>
+        <v>20709234.8812959</v>
       </c>
       <c r="T4">
-        <v>40849015.61505853</v>
+        <v>20749029.88473636</v>
       </c>
       <c r="U4">
-        <v>42159608.18501414</v>
+        <v>20794752.21783275</v>
       </c>
       <c r="V4">
-        <v>43470618.86135557</v>
+        <v>20845360.40599664</v>
       </c>
       <c r="W4">
-        <v>44781462.98403087</v>
+        <v>20899715.77269188</v>
       </c>
       <c r="X4">
-        <v>45846391.98194278</v>
+        <v>21518506.29698298</v>
       </c>
       <c r="Y4">
-        <v>47070755.98599744</v>
+        <v>21578505.10367395</v>
       </c>
       <c r="Z4">
-        <v>48293583.38676246</v>
+        <v>21634837.47925806</v>
       </c>
       <c r="AA4">
-        <v>49516118.20849248</v>
+        <v>21693938.27422684</v>
       </c>
       <c r="AB4">
-        <v>50740152.98383306</v>
+        <v>21756482.69402691</v>
       </c>
       <c r="AC4">
-        <v>49953754.18820563</v>
+        <v>5872658.97977004</v>
       </c>
       <c r="AD4">
-        <v>51183703.51211368</v>
+        <v>5939594.571067774</v>
       </c>
       <c r="AE4">
-        <v>52414248.06018855</v>
+        <v>6015203.010380538</v>
       </c>
       <c r="AF4">
-        <v>53642612.2871828</v>
+        <v>6077923.298813716</v>
       </c>
       <c r="AG4">
-        <v>54870456.7568187</v>
+        <v>6156278.380513856</v>
       </c>
       <c r="AH4">
-        <v>55771856.03700417</v>
+        <v>1240032.044585478</v>
       </c>
       <c r="AI4">
-        <v>57027555.41542926</v>
+        <v>1248933.258220535</v>
       </c>
       <c r="AJ4">
-        <v>58289506.09215</v>
+        <v>1324617.135731115</v>
       </c>
       <c r="AK4">
-        <v>59561304.79307806</v>
+        <v>1479022.192272609</v>
       </c>
       <c r="AL4">
-        <v>60847719.20779237</v>
+        <v>1669508.23963907</v>
       </c>
       <c r="AM4">
-        <v>62121506.15972719</v>
+        <v>4188968.412663867</v>
       </c>
       <c r="AN4">
-        <v>63400440.12142798</v>
+        <v>4557759.218210331</v>
       </c>
       <c r="AO4">
-        <v>64696331.69691645</v>
+        <v>4983487.236698075</v>
       </c>
       <c r="AP4">
-        <v>66007235.7996327</v>
+        <v>5462438.597304637</v>
       </c>
       <c r="AQ4">
-        <v>67283513.82395904</v>
+        <v>5776375.918452645</v>
       </c>
       <c r="AR4">
-        <v>68512086.77364622</v>
+        <v>9246287.981561443</v>
       </c>
       <c r="AS4">
-        <v>69732744.74139807</v>
+        <v>9333606.73259791</v>
       </c>
       <c r="AT4">
-        <v>70945033.68831962</v>
+        <v>9354756.018702203</v>
       </c>
       <c r="AU4">
-        <v>72149112.4195952</v>
+        <v>9308929.507386785</v>
       </c>
       <c r="AV4">
-        <v>73532639.3235192</v>
+        <v>9217539.325259281</v>
       </c>
       <c r="AW4">
-        <v>74858890.21031424</v>
+        <v>9952529.369540706</v>
       </c>
       <c r="AX4">
-        <v>76212630.41366266</v>
+        <v>9691270.183305286</v>
       </c>
       <c r="AY4">
-        <v>77432246.13289917</v>
+        <v>9279208.816155247</v>
       </c>
       <c r="AZ4">
-        <v>78629517.14396141</v>
+        <v>8778141.069286298</v>
       </c>
       <c r="BA4">
-        <v>79862719.72251369</v>
+        <v>8427358.959293885</v>
       </c>
       <c r="BB4">
-        <v>81172798.99081846</v>
+        <v>7593772.101448592</v>
       </c>
       <c r="BC4">
-        <v>82521699.12898943</v>
+        <v>7395094.3298906</v>
       </c>
       <c r="BD4">
-        <v>83868233.82935728</v>
+        <v>7217777.517273578</v>
       </c>
       <c r="BE4">
-        <v>85216719.83049746</v>
+        <v>7100516.382454732</v>
       </c>
       <c r="BF4">
-        <v>86577768.84006874</v>
+        <v>7007117.482433842</v>
       </c>
       <c r="BG4">
-        <v>87985041.43998545</v>
+        <v>6589797.900505285</v>
       </c>
       <c r="BH4">
-        <v>89442623.53038785</v>
+        <v>6565217.65818645</v>
       </c>
       <c r="BI4">
-        <v>90913331.2812815</v>
+        <v>6649576.428792947</v>
       </c>
       <c r="BJ4">
-        <v>92395773.8029774</v>
+        <v>6799418.546867386</v>
       </c>
       <c r="BK4">
-        <v>93887674.46857773</v>
+        <v>6969335.200701501</v>
       </c>
       <c r="BL4">
-        <v>95403277.53809156</v>
+        <v>7059514.089909913</v>
       </c>
       <c r="BM4">
-        <v>96943208.61045054</v>
+        <v>7223713.888534534</v>
       </c>
       <c r="BN4">
-        <v>98465158.82332751</v>
+        <v>7347781.193886266</v>
       </c>
       <c r="BO4">
-        <v>99967598.23556186</v>
+        <v>7419302.122302176</v>
       </c>
       <c r="BP4">
-        <v>101459724.9699328</v>
+        <v>7426075.688115217</v>
       </c>
       <c r="BQ4">
-        <v>103026153.4048838</v>
+        <v>7373858.0005924</v>
       </c>
       <c r="BR4">
-        <v>104608889.3389167</v>
+        <v>7313000.239251628</v>
       </c>
       <c r="BS4">
-        <v>106188615.8669192</v>
+        <v>7232334.674142171</v>
       </c>
       <c r="BT4">
-        <v>107762779.4593221</v>
+        <v>7119610.593856933</v>
       </c>
       <c r="BU4">
-        <v>109323824.6706667</v>
+        <v>6957085.787264459</v>
       </c>
       <c r="BV4">
-        <v>110915541.4655337</v>
+        <v>6659298.944762317</v>
       </c>
       <c r="BW4">
-        <v>112519327.0534712</v>
+        <v>6457720.770929193</v>
       </c>
       <c r="BX4">
-        <v>114138289.5259452</v>
+        <v>6346504.659001124</v>
       </c>
       <c r="BY4">
-        <v>115773692.0511658</v>
+        <v>6317491.107466796</v>
       </c>
       <c r="BZ4">
-        <v>117414901.5548301</v>
+        <v>6266088.160965169</v>
       </c>
       <c r="CA4">
-        <v>119113790.1067702</v>
+        <v>6068154.492027505</v>
       </c>
       <c r="CB4">
-        <v>120835896.6705974</v>
+        <v>6005764.312799783</v>
       </c>
       <c r="CC4">
-        <v>122565517.3316599</v>
+        <v>5943081.134552643</v>
       </c>
       <c r="CD4">
-        <v>124305308.0029815</v>
+        <v>5875679.855615388</v>
       </c>
       <c r="CE4">
-        <v>126056378.3724182</v>
+        <v>5786208.344910096</v>
       </c>
       <c r="CF4">
-        <v>127876885.3304648</v>
+        <v>5551940.475171059</v>
       </c>
       <c r="CG4">
-        <v>129728477.9003</v>
+        <v>5616521.922720504</v>
       </c>
       <c r="CH4">
-        <v>131584864.4515761</v>
+        <v>5691032.537669628</v>
       </c>
       <c r="CI4">
-        <v>133440825.9313577</v>
+        <v>5764571.668340713</v>
       </c>
       <c r="CJ4">
-        <v>135290060.8252567</v>
+        <v>5829087.511021612</v>
       </c>
       <c r="CK4">
-        <v>137172352.3769412</v>
+        <v>5499081.027057517</v>
       </c>
       <c r="CL4">
-        <v>139073072.0005985</v>
+        <v>5519481.985784199</v>
       </c>
       <c r="CM4">
-        <v>140965261.9180121</v>
+        <v>5516216.776197463</v>
       </c>
       <c r="CN4">
-        <v>142852831.6231841</v>
+        <v>5497093.676899361</v>
       </c>
       <c r="CO4">
-        <v>144737407.6545021</v>
+        <v>5469859.731911099</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1540776.060327088</v>
+        <v>1291614.386526798</v>
       </c>
       <c r="E5">
-        <v>1034124.549212745</v>
+        <v>864992.5697298014</v>
       </c>
       <c r="F5">
-        <v>518472.0077370479</v>
+        <v>808598.5917656132</v>
       </c>
       <c r="G5">
-        <v>318879.5336755562</v>
+        <v>779408.1252504366</v>
       </c>
       <c r="H5">
-        <v>299085.6363711187</v>
+        <v>747925.1531187091</v>
       </c>
       <c r="I5">
-        <v>212697.8368714992</v>
+        <v>934513.7277728185</v>
       </c>
       <c r="J5">
-        <v>174837.2344388943</v>
+        <v>1028234.953144849</v>
       </c>
       <c r="K5">
-        <v>226403.4325668933</v>
+        <v>894882.0299994857</v>
       </c>
       <c r="L5">
-        <v>410130.5002766285</v>
+        <v>828186.6707995243</v>
       </c>
       <c r="M5">
-        <v>361454.0619221004</v>
+        <v>926787.2262042123</v>
       </c>
       <c r="N5">
-        <v>456788.5711380941</v>
+        <v>974467.3071456802</v>
       </c>
       <c r="O5">
-        <v>573045.2793104533</v>
+        <v>1269049.194571519</v>
       </c>
       <c r="P5">
-        <v>3692415.996198633</v>
+        <v>9798134.982893925</v>
       </c>
       <c r="Q5">
-        <v>3704786.869222742</v>
+        <v>9812436.346644076</v>
       </c>
       <c r="R5">
-        <v>3720028.701206497</v>
+        <v>9830040.71891444</v>
       </c>
       <c r="S5">
-        <v>11747058.32851793</v>
+        <v>32563649.48674634</v>
       </c>
       <c r="T5">
-        <v>11768578.32906605</v>
+        <v>32589042.22090744</v>
       </c>
       <c r="U5">
-        <v>11793221.76372673</v>
+        <v>32619007.36300228</v>
       </c>
       <c r="V5">
-        <v>11820783.16761237</v>
+        <v>32654272.01808713</v>
       </c>
       <c r="W5">
-        <v>11850939.18518762</v>
+        <v>32696017.26441574</v>
       </c>
       <c r="X5">
-        <v>11356034.91952379</v>
+        <v>34426764.41249713</v>
       </c>
       <c r="Y5">
-        <v>11390374.56412503</v>
+        <v>34486708.73842686</v>
       </c>
       <c r="Z5">
-        <v>11426668.77044804</v>
+        <v>34560178.97867307</v>
       </c>
       <c r="AA5">
-        <v>11465477.24910787</v>
+        <v>34651927.15407216</v>
       </c>
       <c r="AB5">
-        <v>11508242.99311175</v>
+        <v>34768420.59715907</v>
       </c>
       <c r="AC5">
-        <v>2202663.306145767</v>
+        <v>9853210.183072319</v>
       </c>
       <c r="AD5">
-        <v>2262929.879371446</v>
+        <v>10046946.43099463</v>
       </c>
       <c r="AE5">
-        <v>2339992.282269201</v>
+        <v>10297696.22493548</v>
       </c>
       <c r="AF5">
-        <v>2441408.828194209</v>
+        <v>10620393.87059056</v>
       </c>
       <c r="AG5">
-        <v>2575936.013452881</v>
+        <v>11031065.60536435</v>
       </c>
       <c r="AH5">
-        <v>983178.1393809074</v>
+        <v>3148228.006440772</v>
       </c>
       <c r="AI5">
-        <v>1210822.816241792</v>
+        <v>3662212.105473482</v>
       </c>
       <c r="AJ5">
-        <v>1495951.447536494</v>
+        <v>4278379.685312445</v>
       </c>
       <c r="AK5">
-        <v>1842100.478557815</v>
+        <v>5153603.864183188</v>
       </c>
       <c r="AL5">
-        <v>2248572.071724758</v>
+        <v>6162393.892765782</v>
       </c>
       <c r="AM5">
-        <v>2709569.657362513</v>
+        <v>10820893.33013283</v>
       </c>
       <c r="AN5">
-        <v>3213660.162664575</v>
+        <v>12000937.50000175</v>
       </c>
       <c r="AO5">
-        <v>3743678.412487673</v>
+        <v>13203579.83158566</v>
       </c>
       <c r="AP5">
-        <v>4277154.677458271</v>
+        <v>14370125.5285689</v>
       </c>
       <c r="AQ5">
-        <v>4787442.205026653</v>
+        <v>15433537.56126204</v>
       </c>
       <c r="AR5">
-        <v>5245685.467816323</v>
+        <v>21259958.12593984</v>
       </c>
       <c r="AS5">
-        <v>5623452.989065978</v>
+        <v>21938388.49827271</v>
       </c>
       <c r="AT5">
-        <v>5895861.730547087</v>
+        <v>22350999.28638975</v>
       </c>
       <c r="AU5">
-        <v>6044670.074772416</v>
+        <v>22469876.6737791</v>
       </c>
       <c r="AV5">
-        <v>7254228.984862943</v>
+        <v>22289603.58203598</v>
       </c>
       <c r="AW5">
-        <v>7476670.59568896</v>
+        <v>23269609.94413988</v>
       </c>
       <c r="AX5">
-        <v>7241910.633023076</v>
+        <v>22566216.60123339</v>
       </c>
       <c r="AY5">
-        <v>6908531.170055071</v>
+        <v>21676393.19486022</v>
       </c>
       <c r="AZ5">
-        <v>6504291.569305554</v>
+        <v>20665945.15453067</v>
       </c>
       <c r="BA5">
-        <v>6061066.32587278</v>
+        <v>19604587.83601016</v>
       </c>
       <c r="BB5">
-        <v>5438748.093636742</v>
+        <v>17720959.67968376</v>
       </c>
       <c r="BC5">
-        <v>5016406.369537757</v>
+        <v>16754785.97769192</v>
       </c>
       <c r="BD5">
-        <v>4649602.351184583</v>
+        <v>15917490.89397399</v>
       </c>
       <c r="BE5">
-        <v>4361884.988064104</v>
+        <v>15245824.98590212</v>
       </c>
       <c r="BF5">
-        <v>4169484.256898632</v>
+        <v>14760178.99248522</v>
       </c>
       <c r="BG5">
-        <v>3908993.531142757</v>
+        <v>14000439.46383313</v>
       </c>
       <c r="BH5">
-        <v>3921408.653650298</v>
+        <v>13880133.58090887</v>
       </c>
       <c r="BI5">
-        <v>4026869.247721003</v>
+        <v>13910021.49487533</v>
       </c>
       <c r="BJ5">
-        <v>4211015.111134491</v>
+        <v>14055483.78131011</v>
       </c>
       <c r="BK5">
-        <v>4456408.015261396</v>
+        <v>14277761.83309072</v>
       </c>
       <c r="BL5">
-        <v>4616047.753496748</v>
+        <v>14474415.92117252</v>
       </c>
       <c r="BM5">
-        <v>4929312.659329522</v>
+        <v>14735228.17501472</v>
       </c>
       <c r="BN5">
-        <v>5250779.876103926</v>
+        <v>14964132.52312021</v>
       </c>
       <c r="BO5">
-        <v>5565025.43348674</v>
+        <v>15133838.74927521</v>
       </c>
       <c r="BP5">
-        <v>5858134.829098329</v>
+        <v>15223597.96427159</v>
       </c>
       <c r="BQ5">
-        <v>6028233.006491233</v>
+        <v>15234477.78678623</v>
       </c>
       <c r="BR5">
-        <v>6244644.887423327</v>
+        <v>15131490.77734337</v>
       </c>
       <c r="BS5">
-        <v>6409928.71621647</v>
+        <v>14930303.52075795</v>
       </c>
       <c r="BT5">
-        <v>6519003.09798884</v>
+        <v>14638271.93137242</v>
       </c>
       <c r="BU5">
-        <v>6569647.228897178</v>
+        <v>14267690.98855661</v>
       </c>
       <c r="BV5">
-        <v>6475146.002958706</v>
+        <v>13702427.39846639</v>
       </c>
       <c r="BW5">
-        <v>6414594.481529791</v>
+        <v>13224039.32665668</v>
       </c>
       <c r="BX5">
-        <v>6307617.832848063</v>
+        <v>12718615.4099029</v>
       </c>
       <c r="BY5">
-        <v>6164338.862640481</v>
+        <v>12202950.80223759</v>
       </c>
       <c r="BZ5">
-        <v>5997315.943218422</v>
+        <v>11691282.9028453</v>
       </c>
       <c r="CA5">
-        <v>5728799.287160118</v>
+        <v>10959465.07420311</v>
       </c>
       <c r="CB5">
-        <v>5557214.689592665</v>
+        <v>10483835.04424594</v>
       </c>
       <c r="CC5">
-        <v>5404426.206037405</v>
+        <v>10031809.40931581</v>
       </c>
       <c r="CD5">
-        <v>5282147.125794644</v>
+        <v>9601619.653603161</v>
       </c>
       <c r="CE5">
-        <v>5199060.766416427</v>
+        <v>9188008.062438164</v>
       </c>
       <c r="CF5">
-        <v>5056629.743573037</v>
+        <v>8380267.537434591</v>
       </c>
       <c r="CG5">
-        <v>5063563.408852925</v>
+        <v>7974637.024156655</v>
       </c>
       <c r="CH5">
-        <v>5114217.37244443</v>
+        <v>7558354.293670831</v>
       </c>
       <c r="CI5">
-        <v>5203731.707981013</v>
+        <v>7122149.056187495</v>
       </c>
       <c r="CJ5">
-        <v>5325049.113038622</v>
+        <v>6658298.213197739</v>
       </c>
       <c r="CK5">
-        <v>5327978.889946544</v>
+        <v>5529043.015080773</v>
       </c>
       <c r="CL5">
-        <v>5486524.893663149</v>
+        <v>4996144.861501582</v>
       </c>
       <c r="CM5">
-        <v>5649577.104126447</v>
+        <v>4427317.187155285</v>
       </c>
       <c r="CN5">
-        <v>5808148.273348539</v>
+        <v>3825291.481721628</v>
       </c>
       <c r="CO5">
-        <v>5954192.495482929</v>
+        <v>3195159.882145213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>793.7358230959362</v>
+      </c>
+      <c r="E2">
+        <v>1828.207650863836</v>
+      </c>
+      <c r="F2">
+        <v>2862.171675640489</v>
+      </c>
+      <c r="G2">
+        <v>3844.715201198013</v>
+      </c>
+      <c r="H2">
+        <v>5162.531491219055</v>
+      </c>
+      <c r="I2">
+        <v>6113.241372886859</v>
+      </c>
+      <c r="J2">
+        <v>7833.482861922118</v>
+      </c>
+      <c r="K2">
+        <v>9543.638351395461</v>
+      </c>
+      <c r="L2">
+        <v>11065.32282128018</v>
+      </c>
+      <c r="M2">
+        <v>12467.89626148579</v>
+      </c>
+      <c r="N2">
+        <v>15468.29922909393</v>
+      </c>
+      <c r="O2">
+        <v>17289.57636325449</v>
+      </c>
+      <c r="P2">
+        <v>20939.89409960507</v>
+      </c>
+      <c r="Q2">
+        <v>24879.15863475039</v>
+      </c>
+      <c r="R2">
+        <v>29110.64859365163</v>
+      </c>
+      <c r="S2">
+        <v>38362.72039847769</v>
+      </c>
+      <c r="T2">
+        <v>48268.68169428668</v>
+      </c>
+      <c r="U2">
+        <v>58835.23255645821</v>
+      </c>
+      <c r="V2">
+        <v>70073.59286183573</v>
+      </c>
+      <c r="W2">
+        <v>81992.54740511016</v>
+      </c>
+      <c r="X2">
+        <v>93964.07880021278</v>
+      </c>
+      <c r="Y2">
+        <v>106585.5382601819</v>
+      </c>
+      <c r="Z2">
+        <v>119861.4019705582</v>
+      </c>
+      <c r="AA2">
+        <v>133803.5508139764</v>
+      </c>
+      <c r="AB2">
+        <v>148428.4577353109</v>
+      </c>
+      <c r="AC2">
+        <v>155225.130909277</v>
+      </c>
+      <c r="AD2">
+        <v>162199.5534723678</v>
+      </c>
+      <c r="AE2">
+        <v>169398.4588553059</v>
+      </c>
+      <c r="AF2">
+        <v>176815.444521841</v>
+      </c>
+      <c r="AG2">
+        <v>184485.4710816911</v>
+      </c>
+      <c r="AH2">
+        <v>189336.5215263278</v>
+      </c>
+      <c r="AI2">
+        <v>194222.1585238305</v>
+      </c>
+      <c r="AJ2">
+        <v>199311.9065425484</v>
+      </c>
+      <c r="AK2">
+        <v>204771.2434537747</v>
+      </c>
+      <c r="AL2">
+        <v>210590.1626898815</v>
+      </c>
+      <c r="AM2">
+        <v>218305.8528840458</v>
+      </c>
+      <c r="AN2">
+        <v>226898.6568542923</v>
+      </c>
+      <c r="AO2">
+        <v>236698.757262623</v>
+      </c>
+      <c r="AP2">
+        <v>248045.0047244288</v>
+      </c>
+      <c r="AQ2">
+        <v>260485.3942952233</v>
+      </c>
+      <c r="AR2">
+        <v>275970.7811195023</v>
+      </c>
+      <c r="AS2">
+        <v>292050.975561781</v>
+      </c>
+      <c r="AT2">
+        <v>308618.1401126902</v>
+      </c>
+      <c r="AU2">
+        <v>325568.8931019653</v>
+      </c>
+      <c r="AV2">
+        <v>342897.6171534505</v>
+      </c>
+      <c r="AW2">
+        <v>361027.8396003598</v>
+      </c>
+      <c r="AX2">
+        <v>378944.9937300396</v>
+      </c>
+      <c r="AY2">
+        <v>395774.7408634974</v>
+      </c>
+      <c r="AZ2">
+        <v>410890.4855124605</v>
+      </c>
+      <c r="BA2">
+        <v>425147.6245460636</v>
+      </c>
+      <c r="BB2">
+        <v>438711.3912789449</v>
+      </c>
+      <c r="BC2">
+        <v>452156.8052828813</v>
+      </c>
+      <c r="BD2">
+        <v>465204.0005889583</v>
+      </c>
+      <c r="BE2">
+        <v>477675.6936281366</v>
+      </c>
+      <c r="BF2">
+        <v>489947.4876561309</v>
+      </c>
+      <c r="BG2">
+        <v>501974.2772977029</v>
+      </c>
+      <c r="BH2">
+        <v>514434.8508422083</v>
+      </c>
+      <c r="BI2">
+        <v>527562.4602876392</v>
+      </c>
+      <c r="BJ2">
+        <v>541595.9539934541</v>
+      </c>
+      <c r="BK2">
+        <v>556598.4614384839</v>
+      </c>
+      <c r="BL2">
+        <v>572344.4558469722</v>
+      </c>
+      <c r="BM2">
+        <v>589181.9753176273</v>
+      </c>
+      <c r="BN2">
+        <v>607107.8631713747</v>
+      </c>
+      <c r="BO2">
+        <v>626011.9508776938</v>
+      </c>
+      <c r="BP2">
+        <v>645514.9354926941</v>
+      </c>
+      <c r="BQ2">
+        <v>665169.4631066537</v>
+      </c>
+      <c r="BR2">
+        <v>685024.1609482773</v>
+      </c>
+      <c r="BS2">
+        <v>704993.4839860913</v>
+      </c>
+      <c r="BT2">
+        <v>724881.4198778134</v>
+      </c>
+      <c r="BU2">
+        <v>744313.5902220119</v>
+      </c>
+      <c r="BV2">
+        <v>762777.3715833727</v>
+      </c>
+      <c r="BW2">
+        <v>780378.1348871079</v>
+      </c>
+      <c r="BX2">
+        <v>797338.6592067796</v>
+      </c>
+      <c r="BY2">
+        <v>813891.7105672748</v>
+      </c>
+      <c r="BZ2">
+        <v>830129.3164690282</v>
+      </c>
+      <c r="CA2">
+        <v>845889.9336681633</v>
+      </c>
+      <c r="CB2">
+        <v>861344.3999609021</v>
+      </c>
+      <c r="CC2">
+        <v>876618.8814208999</v>
+      </c>
+      <c r="CD2">
+        <v>891880.7889645451</v>
+      </c>
+      <c r="CE2">
+        <v>907301.2002666957</v>
+      </c>
+      <c r="CF2">
+        <v>922814.2456561506</v>
+      </c>
+      <c r="CG2">
+        <v>938667.7464632122</v>
+      </c>
+      <c r="CH2">
+        <v>954868.4847637173</v>
+      </c>
+      <c r="CI2">
+        <v>971399.9452481725</v>
+      </c>
+      <c r="CJ2">
+        <v>988246.9306919499</v>
+      </c>
+      <c r="CK2">
+        <v>1005052.016857564</v>
+      </c>
+      <c r="CL2">
+        <v>1021983.259891064</v>
+      </c>
+      <c r="CM2">
+        <v>1038887.251268992</v>
+      </c>
+      <c r="CN2">
+        <v>1055636.968057469</v>
+      </c>
+      <c r="CO2">
+        <v>1072154.022159316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>59.47279146422881</v>
+      </c>
+      <c r="E3">
+        <v>137.2176391193678</v>
+      </c>
+      <c r="F3">
+        <v>214.8246495855535</v>
+      </c>
+      <c r="G3">
+        <v>288.5174341859763</v>
+      </c>
+      <c r="H3">
+        <v>387.8080190627688</v>
+      </c>
+      <c r="I3">
+        <v>459.1504060063195</v>
+      </c>
+      <c r="J3">
+        <v>588.9629728042753</v>
+      </c>
+      <c r="K3">
+        <v>717.8802910986479</v>
+      </c>
+      <c r="L3">
+        <v>832.4922542980607</v>
+      </c>
+      <c r="M3">
+        <v>937.9746268711273</v>
+      </c>
+      <c r="N3">
+        <v>1164.984318235705</v>
+      </c>
+      <c r="O3">
+        <v>1302.373661951674</v>
+      </c>
+      <c r="P3">
+        <v>1578.859204664495</v>
+      </c>
+      <c r="Q3">
+        <v>1877.297550852173</v>
+      </c>
+      <c r="R3">
+        <v>2197.940726034532</v>
+      </c>
+      <c r="S3">
+        <v>2900.510913892039</v>
+      </c>
+      <c r="T3">
+        <v>3652.805712930423</v>
+      </c>
+      <c r="U3">
+        <v>4455.335483977576</v>
+      </c>
+      <c r="V3">
+        <v>5308.955785417163</v>
+      </c>
+      <c r="W3">
+        <v>6214.347901191261</v>
+      </c>
+      <c r="X3">
+        <v>7123.738553228762</v>
+      </c>
+      <c r="Y3">
+        <v>8082.620007385015</v>
+      </c>
+      <c r="Z3">
+        <v>9091.35970045186</v>
+      </c>
+      <c r="AA3">
+        <v>10150.89454836637</v>
+      </c>
+      <c r="AB3">
+        <v>11262.51918835537</v>
+      </c>
+      <c r="AC3">
+        <v>11778.63416692822</v>
+      </c>
+      <c r="AD3">
+        <v>12308.43081519297</v>
+      </c>
+      <c r="AE3">
+        <v>12855.55850565318</v>
+      </c>
+      <c r="AF3">
+        <v>13419.53417864794</v>
+      </c>
+      <c r="AG3">
+        <v>14003.09981992555</v>
+      </c>
+      <c r="AH3">
+        <v>14372.40788910164</v>
+      </c>
+      <c r="AI3">
+        <v>14744.5608903675</v>
+      </c>
+      <c r="AJ3">
+        <v>15132.87308186295</v>
+      </c>
+      <c r="AK3">
+        <v>15550.39315197203</v>
+      </c>
+      <c r="AL3">
+        <v>15996.42630084111</v>
+      </c>
+      <c r="AM3">
+        <v>16588.67241837428</v>
+      </c>
+      <c r="AN3">
+        <v>17250.53317548354</v>
+      </c>
+      <c r="AO3">
+        <v>18008.60410669891</v>
+      </c>
+      <c r="AP3">
+        <v>18890.50388662757</v>
+      </c>
+      <c r="AQ3">
+        <v>19861.0899842671</v>
+      </c>
+      <c r="AR3">
+        <v>21067.45143141364</v>
+      </c>
+      <c r="AS3">
+        <v>22322.93323122787</v>
+      </c>
+      <c r="AT3">
+        <v>23619.01653677693</v>
+      </c>
+      <c r="AU3">
+        <v>24947.47800633555</v>
+      </c>
+      <c r="AV3">
+        <v>26307.9738692769</v>
+      </c>
+      <c r="AW3">
+        <v>27732.16842812449</v>
+      </c>
+      <c r="AX3">
+        <v>29140.2559996085</v>
+      </c>
+      <c r="AY3">
+        <v>30460.59356819815</v>
+      </c>
+      <c r="AZ3">
+        <v>31641.38932368883</v>
+      </c>
+      <c r="BA3">
+        <v>32752.28365182454</v>
+      </c>
+      <c r="BB3">
+        <v>33810.69710378469</v>
+      </c>
+      <c r="BC3">
+        <v>34859.80697026385</v>
+      </c>
+      <c r="BD3">
+        <v>35876.36568653423</v>
+      </c>
+      <c r="BE3">
+        <v>36845.48242173971</v>
+      </c>
+      <c r="BF3">
+        <v>37797.95351149368</v>
+      </c>
+      <c r="BG3">
+        <v>38733.09741459276</v>
+      </c>
+      <c r="BH3">
+        <v>39703.8296933795</v>
+      </c>
+      <c r="BI3">
+        <v>40729.37503802942</v>
+      </c>
+      <c r="BJ3">
+        <v>41829.45911934875</v>
+      </c>
+      <c r="BK3">
+        <v>43009.24172409295</v>
+      </c>
+      <c r="BL3">
+        <v>44251.79387173175</v>
+      </c>
+      <c r="BM3">
+        <v>45584.11003866219</v>
+      </c>
+      <c r="BN3">
+        <v>47005.84413084973</v>
+      </c>
+      <c r="BO3">
+        <v>48507.74867988498</v>
+      </c>
+      <c r="BP3">
+        <v>50058.20625034977</v>
+      </c>
+      <c r="BQ3">
+        <v>51620.93255548285</v>
+      </c>
+      <c r="BR3">
+        <v>53198.95802274358</v>
+      </c>
+      <c r="BS3">
+        <v>54785.1297057658</v>
+      </c>
+      <c r="BT3">
+        <v>56363.15284078575</v>
+      </c>
+      <c r="BU3">
+        <v>57902.00316815848</v>
+      </c>
+      <c r="BV3">
+        <v>59360.43269197919</v>
+      </c>
+      <c r="BW3">
+        <v>60746.19790206871</v>
+      </c>
+      <c r="BX3">
+        <v>62077.82674765192</v>
+      </c>
+      <c r="BY3">
+        <v>63374.59274804837</v>
+      </c>
+      <c r="BZ3">
+        <v>64644.10395379589</v>
+      </c>
+      <c r="CA3">
+        <v>65874.02371943982</v>
+      </c>
+      <c r="CB3">
+        <v>67077.47661802857</v>
+      </c>
+      <c r="CC3">
+        <v>68264.7574918336</v>
+      </c>
+      <c r="CD3">
+        <v>69449.43043371131</v>
+      </c>
+      <c r="CE3">
+        <v>70645.22528043507</v>
+      </c>
+      <c r="CF3">
+        <v>71847.46740994592</v>
+      </c>
+      <c r="CG3">
+        <v>73074.91879004787</v>
+      </c>
+      <c r="CH3">
+        <v>74327.70001315196</v>
+      </c>
+      <c r="CI3">
+        <v>75604.02488378294</v>
+      </c>
+      <c r="CJ3">
+        <v>76902.18169264006</v>
+      </c>
+      <c r="CK3">
+        <v>78194.25117938899</v>
+      </c>
+      <c r="CL3">
+        <v>79492.18345652269</v>
+      </c>
+      <c r="CM3">
+        <v>80783.5610075076</v>
+      </c>
+      <c r="CN3">
+        <v>82058.22396347972</v>
+      </c>
+      <c r="CO3">
+        <v>83309.93639081315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1075522.015168602</v>
+      </c>
+      <c r="E4">
+        <v>2041599.052262153</v>
+      </c>
+      <c r="F4">
+        <v>2884973.848279223</v>
+      </c>
+      <c r="G4">
+        <v>3863259.150256936</v>
+      </c>
+      <c r="H4">
+        <v>4938296.558833755</v>
+      </c>
+      <c r="I4">
+        <v>5960033.789262184</v>
+      </c>
+      <c r="J4">
+        <v>7070871.567661313</v>
+      </c>
+      <c r="K4">
+        <v>8089792.92176495</v>
+      </c>
+      <c r="L4">
+        <v>9101883.798966648</v>
+      </c>
+      <c r="M4">
+        <v>10451788.05968971</v>
+      </c>
+      <c r="N4">
+        <v>11732811.86767467</v>
+      </c>
+      <c r="O4">
+        <v>13001746.58837169</v>
+      </c>
+      <c r="P4">
+        <v>19578738.67537068</v>
+      </c>
+      <c r="Q4">
+        <v>26188178.94804497</v>
+      </c>
+      <c r="R4">
+        <v>32822308.08598829</v>
+      </c>
+      <c r="S4">
+        <v>53531542.9672842</v>
+      </c>
+      <c r="T4">
+        <v>74280572.85202056</v>
+      </c>
+      <c r="U4">
+        <v>95075325.06985331</v>
+      </c>
+      <c r="V4">
+        <v>115920685.4758499</v>
+      </c>
+      <c r="W4">
+        <v>136820401.2485418</v>
+      </c>
+      <c r="X4">
+        <v>158338907.5455248</v>
+      </c>
+      <c r="Y4">
+        <v>179917412.6491988</v>
+      </c>
+      <c r="Z4">
+        <v>201552250.1284568</v>
+      </c>
+      <c r="AA4">
+        <v>223246188.4026837</v>
+      </c>
+      <c r="AB4">
+        <v>245002671.0967106</v>
+      </c>
+      <c r="AC4">
+        <v>250875330.0764806</v>
+      </c>
+      <c r="AD4">
+        <v>256814924.6475484</v>
+      </c>
+      <c r="AE4">
+        <v>262830127.6579289</v>
+      </c>
+      <c r="AF4">
+        <v>268908050.9567426</v>
+      </c>
+      <c r="AG4">
+        <v>275064329.3372565</v>
+      </c>
+      <c r="AH4">
+        <v>276304361.381842</v>
+      </c>
+      <c r="AI4">
+        <v>277553294.6400625</v>
+      </c>
+      <c r="AJ4">
+        <v>278877911.7757936</v>
+      </c>
+      <c r="AK4">
+        <v>280356933.9680662</v>
+      </c>
+      <c r="AL4">
+        <v>282026442.2077053</v>
+      </c>
+      <c r="AM4">
+        <v>286215410.6203691</v>
+      </c>
+      <c r="AN4">
+        <v>290773169.8385795</v>
+      </c>
+      <c r="AO4">
+        <v>295756657.0752776</v>
+      </c>
+      <c r="AP4">
+        <v>301219095.6725822</v>
+      </c>
+      <c r="AQ4">
+        <v>306995471.5910348</v>
+      </c>
+      <c r="AR4">
+        <v>316241759.5725963</v>
+      </c>
+      <c r="AS4">
+        <v>325575366.3051941</v>
+      </c>
+      <c r="AT4">
+        <v>334930122.3238963</v>
+      </c>
+      <c r="AU4">
+        <v>344239051.8312832</v>
+      </c>
+      <c r="AV4">
+        <v>353456591.1565424</v>
+      </c>
+      <c r="AW4">
+        <v>363409120.5260831</v>
+      </c>
+      <c r="AX4">
+        <v>373100390.7093884</v>
+      </c>
+      <c r="AY4">
+        <v>382379599.5255436</v>
+      </c>
+      <c r="AZ4">
+        <v>391157740.5948299</v>
+      </c>
+      <c r="BA4">
+        <v>399585099.5541238</v>
+      </c>
+      <c r="BB4">
+        <v>407178871.6555724</v>
+      </c>
+      <c r="BC4">
+        <v>414573965.985463</v>
+      </c>
+      <c r="BD4">
+        <v>421791743.5027366</v>
+      </c>
+      <c r="BE4">
+        <v>428892259.8851914</v>
+      </c>
+      <c r="BF4">
+        <v>435899377.3676252</v>
+      </c>
+      <c r="BG4">
+        <v>442489175.2681305</v>
+      </c>
+      <c r="BH4">
+        <v>449054392.926317</v>
+      </c>
+      <c r="BI4">
+        <v>455703969.3551099</v>
+      </c>
+      <c r="BJ4">
+        <v>462503387.9019773</v>
+      </c>
+      <c r="BK4">
+        <v>469472723.1026788</v>
+      </c>
+      <c r="BL4">
+        <v>476532237.1925887</v>
+      </c>
+      <c r="BM4">
+        <v>483755951.0811232</v>
+      </c>
+      <c r="BN4">
+        <v>491103732.2750095</v>
+      </c>
+      <c r="BO4">
+        <v>498523034.3973117</v>
+      </c>
+      <c r="BP4">
+        <v>505949110.0854269</v>
+      </c>
+      <c r="BQ4">
+        <v>513322968.0860193</v>
+      </c>
+      <c r="BR4">
+        <v>520635968.325271</v>
+      </c>
+      <c r="BS4">
+        <v>527868302.9994131</v>
+      </c>
+      <c r="BT4">
+        <v>534987913.5932701</v>
+      </c>
+      <c r="BU4">
+        <v>541944999.3805345</v>
+      </c>
+      <c r="BV4">
+        <v>548604298.3252969</v>
+      </c>
+      <c r="BW4">
+        <v>555062019.0962261</v>
+      </c>
+      <c r="BX4">
+        <v>561408523.7552272</v>
+      </c>
+      <c r="BY4">
+        <v>567726014.862694</v>
+      </c>
+      <c r="BZ4">
+        <v>573992103.0236592</v>
+      </c>
+      <c r="CA4">
+        <v>580060257.5156868</v>
+      </c>
+      <c r="CB4">
+        <v>586066021.8284866</v>
+      </c>
+      <c r="CC4">
+        <v>592009102.9630392</v>
+      </c>
+      <c r="CD4">
+        <v>597884782.8186545</v>
+      </c>
+      <c r="CE4">
+        <v>603670991.1635647</v>
+      </c>
+      <c r="CF4">
+        <v>609222931.6387358</v>
+      </c>
+      <c r="CG4">
+        <v>614839453.5614563</v>
+      </c>
+      <c r="CH4">
+        <v>620530486.099126</v>
+      </c>
+      <c r="CI4">
+        <v>626295057.7674667</v>
+      </c>
+      <c r="CJ4">
+        <v>632124145.2784883</v>
+      </c>
+      <c r="CK4">
+        <v>637623226.3055458</v>
+      </c>
+      <c r="CL4">
+        <v>643142708.29133</v>
+      </c>
+      <c r="CM4">
+        <v>648658925.0675274</v>
+      </c>
+      <c r="CN4">
+        <v>654156018.7444267</v>
+      </c>
+      <c r="CO4">
+        <v>659625878.4763378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1291614.386526798</v>
+      </c>
+      <c r="E5">
+        <v>2156606.9562566</v>
+      </c>
+      <c r="F5">
+        <v>2965205.548022213</v>
+      </c>
+      <c r="G5">
+        <v>3744613.67327265</v>
+      </c>
+      <c r="H5">
+        <v>4492538.826391359</v>
+      </c>
+      <c r="I5">
+        <v>5427052.554164178</v>
+      </c>
+      <c r="J5">
+        <v>6455287.507309026</v>
+      </c>
+      <c r="K5">
+        <v>7350169.537308512</v>
+      </c>
+      <c r="L5">
+        <v>8178356.208108037</v>
+      </c>
+      <c r="M5">
+        <v>9105143.434312249</v>
+      </c>
+      <c r="N5">
+        <v>10079610.74145793</v>
+      </c>
+      <c r="O5">
+        <v>11348659.93602945</v>
+      </c>
+      <c r="P5">
+        <v>21146794.91892337</v>
+      </c>
+      <c r="Q5">
+        <v>30959231.26556744</v>
+      </c>
+      <c r="R5">
+        <v>40789271.98448189</v>
+      </c>
+      <c r="S5">
+        <v>73352921.47122823</v>
+      </c>
+      <c r="T5">
+        <v>105941963.6921357</v>
+      </c>
+      <c r="U5">
+        <v>138560971.0551379</v>
+      </c>
+      <c r="V5">
+        <v>171215243.0732251</v>
+      </c>
+      <c r="W5">
+        <v>203911260.3376408</v>
+      </c>
+      <c r="X5">
+        <v>238338024.750138</v>
+      </c>
+      <c r="Y5">
+        <v>272824733.4885648</v>
+      </c>
+      <c r="Z5">
+        <v>307384912.4672379</v>
+      </c>
+      <c r="AA5">
+        <v>342036839.6213101</v>
+      </c>
+      <c r="AB5">
+        <v>376805260.2184692</v>
+      </c>
+      <c r="AC5">
+        <v>386658470.4015415</v>
+      </c>
+      <c r="AD5">
+        <v>396705416.8325362</v>
+      </c>
+      <c r="AE5">
+        <v>407003113.0574716</v>
+      </c>
+      <c r="AF5">
+        <v>417623506.9280622</v>
+      </c>
+      <c r="AG5">
+        <v>428654572.5334266</v>
+      </c>
+      <c r="AH5">
+        <v>431802800.5398673</v>
+      </c>
+      <c r="AI5">
+        <v>435465012.6453408</v>
+      </c>
+      <c r="AJ5">
+        <v>439743392.3306533</v>
+      </c>
+      <c r="AK5">
+        <v>444896996.1948364</v>
+      </c>
+      <c r="AL5">
+        <v>451059390.0876022</v>
+      </c>
+      <c r="AM5">
+        <v>461880283.417735</v>
+      </c>
+      <c r="AN5">
+        <v>473881220.9177368</v>
+      </c>
+      <c r="AO5">
+        <v>487084800.7493224</v>
+      </c>
+      <c r="AP5">
+        <v>501454926.2778913</v>
+      </c>
+      <c r="AQ5">
+        <v>516888463.8391534</v>
+      </c>
+      <c r="AR5">
+        <v>538148421.9650933</v>
+      </c>
+      <c r="AS5">
+        <v>560086810.4633659</v>
+      </c>
+      <c r="AT5">
+        <v>582437809.7497556</v>
+      </c>
+      <c r="AU5">
+        <v>604907686.4235348</v>
+      </c>
+      <c r="AV5">
+        <v>627197290.0055708</v>
+      </c>
+      <c r="AW5">
+        <v>650466899.9497106</v>
+      </c>
+      <c r="AX5">
+        <v>673033116.550944</v>
+      </c>
+      <c r="AY5">
+        <v>694709509.7458042</v>
+      </c>
+      <c r="AZ5">
+        <v>715375454.9003348</v>
+      </c>
+      <c r="BA5">
+        <v>734980042.7363451</v>
+      </c>
+      <c r="BB5">
+        <v>752701002.4160289</v>
+      </c>
+      <c r="BC5">
+        <v>769455788.3937207</v>
+      </c>
+      <c r="BD5">
+        <v>785373279.2876947</v>
+      </c>
+      <c r="BE5">
+        <v>800619104.2735968</v>
+      </c>
+      <c r="BF5">
+        <v>815379283.2660819</v>
+      </c>
+      <c r="BG5">
+        <v>829379722.729915</v>
+      </c>
+      <c r="BH5">
+        <v>843259856.3108239</v>
+      </c>
+      <c r="BI5">
+        <v>857169877.8056992</v>
+      </c>
+      <c r="BJ5">
+        <v>871225361.5870093</v>
+      </c>
+      <c r="BK5">
+        <v>885503123.4201</v>
+      </c>
+      <c r="BL5">
+        <v>899977539.3412725</v>
+      </c>
+      <c r="BM5">
+        <v>914712767.5162872</v>
+      </c>
+      <c r="BN5">
+        <v>929676900.0394074</v>
+      </c>
+      <c r="BO5">
+        <v>944810738.7886826</v>
+      </c>
+      <c r="BP5">
+        <v>960034336.7529541</v>
+      </c>
+      <c r="BQ5">
+        <v>975268814.5397403</v>
+      </c>
+      <c r="BR5">
+        <v>990400305.3170837</v>
+      </c>
+      <c r="BS5">
+        <v>1005330608.837842</v>
+      </c>
+      <c r="BT5">
+        <v>1019968880.769214</v>
+      </c>
+      <c r="BU5">
+        <v>1034236571.757771</v>
+      </c>
+      <c r="BV5">
+        <v>1047938999.156237</v>
+      </c>
+      <c r="BW5">
+        <v>1061163038.482894</v>
+      </c>
+      <c r="BX5">
+        <v>1073881653.892797</v>
+      </c>
+      <c r="BY5">
+        <v>1086084604.695034</v>
+      </c>
+      <c r="BZ5">
+        <v>1097775887.597879</v>
+      </c>
+      <c r="CA5">
+        <v>1108735352.672082</v>
+      </c>
+      <c r="CB5">
+        <v>1119219187.716328</v>
+      </c>
+      <c r="CC5">
+        <v>1129250997.125644</v>
+      </c>
+      <c r="CD5">
+        <v>1138852616.779247</v>
+      </c>
+      <c r="CE5">
+        <v>1148040624.841686</v>
+      </c>
+      <c r="CF5">
+        <v>1156420892.37912</v>
+      </c>
+      <c r="CG5">
+        <v>1164395529.403277</v>
+      </c>
+      <c r="CH5">
+        <v>1171953883.696948</v>
+      </c>
+      <c r="CI5">
+        <v>1179076032.753135</v>
+      </c>
+      <c r="CJ5">
+        <v>1185734330.966333</v>
+      </c>
+      <c r="CK5">
+        <v>1191263373.981413</v>
+      </c>
+      <c r="CL5">
+        <v>1196259518.842915</v>
+      </c>
+      <c r="CM5">
+        <v>1200686836.03007</v>
+      </c>
+      <c r="CN5">
+        <v>1204512127.511792</v>
+      </c>
+      <c r="CO5">
+        <v>1207707287.393937</v>
       </c>
     </row>
   </sheetData>
